--- a/biology/Mycologie/Russule_gracile/Russule_gracile.xlsx
+++ b/biology/Mycologie/Russule_gracile/Russule_gracile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russule gracile
 Russula gracillima, la Russule gracile, est une espèce de champignons de la famille des Russulaceae. Il s'agit d'un champignon de petite taille, clair, poussant essentiellement au pied des bouleaux et que l'on rencontre en Europe, en Asie et en Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau, de 2 à 6 cm de diamètre, est généralement vert terne ou vert olive en son centre et présente une périphérie rose, même s'il peut être uniquement de l'une ou l'autre de ces couleurs, ou, parfois, violet pâle. Au début, il est convexe, mais par la suite, il s'aplatit et, parfois, présente une petite saillie centrale (umbo). La peau du chapeau pèle sur un tiers à la moitié de leur diamètre et les spécimens adultes ont souvent un bord plissé.
 Le pied fragile, blanc ou gris-rose pâle, est long par rapport à la taille du chapeau.
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Russula gracillima apparaît au cours de l'été à la fin de l'automne, le plus souvent en petits groupes, au pied de bouleaux, saules ou parfois dans des endroits humides. Ce champignon est très répandu dans les zones tempérées du Nord de l'Europe, en Asie et en Amérique du Nord.
 </t>
@@ -577,7 +593,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La comestibilité de Russula gracillima n'est pas connue.
 </t>
@@ -608,9 +626,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (8 février 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (8 février 2023) :
 Russula gracillima f. altaica (Singer) Vassilkov, 1970
 Russula gracillima f. gracillima</t>
         </is>
@@ -640,10 +660,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Russula gracillima Jul.Schäff., 1931[1].
-Russula gracillima a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Russula gracillima Jul.Schäff., 1931.
+Russula gracillima a pour synonymes :
 Russula gracilis subsp. gracillima (Jul. Schäff.) Singer, 1938
 Russula gracillima Jul.Schäff., 1931</t>
         </is>
@@ -673,7 +695,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, gracillima, dérive du latin gracilis, « mince, svelte, gracile »
 </t>
